--- a/biology/Zoologie/Archimonocelididae/Archimonocelididae.xlsx
+++ b/biology/Zoologie/Archimonocelididae/Archimonocelididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archimonocelididae sont une famille de vers plats marins de l'infra-ordre des Lithophora et de l'ordre des Proseriata.
 </t>
@@ -511,21 +523,127 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Archimonocelididae Meixner, 1938[1].
-Synonymes de Archimonocelididae, noms incorrects
-Archimonocelididae a pour synonyme[1] Meidiamidae Schockaert, Curini-Galletti, De Ridder, Volonterio &amp; Artois, 2009.
-Le nom incorrect "Archimonocelidae" se rencontre dans certaines bases de données[2].
-Sous-taxons
-Selon la base de données World Register of Marine Species                               (16 décembre 2023)[1], la famille des Protomonotresidae regroupe les sous-familles et genres suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Archimonocelididae Meixner, 1938.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Archimonocelididae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archimonocelididae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes de Archimonocelididae, noms incorrects</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archimonocelididae a pour synonyme Meidiamidae Schockaert, Curini-Galletti, De Ridder, Volonterio &amp; Artois, 2009.
+Le nom incorrect "Archimonocelidae" se rencontre dans certaines bases de données.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archimonocelididae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archimonocelididae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (16 décembre 2023), la famille des Protomonotresidae regroupe les sous-familles et genres suivants :
 Famille des Archimonocelididae
 Sous-famille des Archimonocelidinae Meixner, 1938
 Archimonocelis Meixner, 1938
 Meidiama Marcus, 1946
-Sous-famille des Calviriinae Martens &amp; Curini-Galletti, 1993
-Reclassements
-Les genres Calviria Martens &amp; Curini-Galletti, 1993 et Asilomaria Karling, 1966, autrefois dans la sous-famille des Calviriinae, sont maintenant rangés dans  la famille des Calviriidae, ce qui fait des Calviriinae une sous-famille vide d'espèce.
+Sous-famille des Calviriinae Martens &amp; Curini-Galletti, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Archimonocelididae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archimonocelididae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reclassements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Calviria Martens &amp; Curini-Galletti, 1993 et Asilomaria Karling, 1966, autrefois dans la sous-famille des Calviriinae, sont maintenant rangés dans  la famille des Calviriidae, ce qui fait des Calviriinae une sous-famille vide d'espèce.
 </t>
         </is>
       </c>
